--- a/target.xlsx
+++ b/target.xlsx
@@ -2,7 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\scripts\excel_control\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,12 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>AAA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,19 +350,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target.xlsx
+++ b/target.xlsx
@@ -24,7 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,7 +353,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="B5:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:G16"/>
@@ -358,7 +363,46 @@
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
